--- a/Final_annotation_disprepancy.xlsx
+++ b/Final_annotation_disprepancy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosydai/Desktop/Master_thesis/IPAC_paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosydai/Desktop/Master_thesis/Frontend/annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB0E0AF-B4B6-184F-8FCC-EE38B2D9AD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72B2ACA-B2F1-E04F-A6E4-496E124ECC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="29400" windowHeight="17300" xr2:uid="{CF745266-F980-F849-B9B7-06E3D8B86182}"/>
   </bookViews>
@@ -6220,7 +6220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6233,9 +6233,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6595,7 +6592,7 @@
   <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6608,19 +6605,19 @@
         <v>985</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>928</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>901</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>902</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>986</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>908</v>
       </c>
       <c r="H1" t="s">
         <v>903</v>
@@ -6630,10 +6627,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>833</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>1730</v>
       </c>
       <c r="C2" t="s">
@@ -6659,10 +6656,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>879</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>1776</v>
       </c>
       <c r="C3" t="s">
@@ -6688,10 +6685,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>880</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>1777</v>
       </c>
       <c r="C4" t="s">
@@ -6717,10 +6714,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>883</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>1780</v>
       </c>
       <c r="C5" t="s">
@@ -6746,10 +6743,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>884</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>1781</v>
       </c>
       <c r="C6" t="s">
@@ -6775,10 +6772,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>887</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>1784</v>
       </c>
       <c r="C7" t="s">
@@ -6804,10 +6801,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>893</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>1790</v>
       </c>
       <c r="C8" t="s">
@@ -6833,10 +6830,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>917</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>2921</v>
       </c>
       <c r="C9" t="s">
@@ -6862,10 +6859,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>1235</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>2857</v>
       </c>
       <c r="C10" t="s">
@@ -6891,10 +6888,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>1390</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>1793</v>
       </c>
       <c r="C11" t="s">
@@ -6920,10 +6917,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>1398</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>1804</v>
       </c>
       <c r="C12" t="s">
@@ -6949,10 +6946,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>1513</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>1640</v>
       </c>
       <c r="C13" t="s">
@@ -6978,10 +6975,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>1520</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>1647</v>
       </c>
       <c r="C14" t="s">
@@ -7007,10 +7004,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>1523</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>1650</v>
       </c>
       <c r="C15" t="s">
@@ -7036,10 +7033,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>1562</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>1689</v>
       </c>
       <c r="C16" t="s">
@@ -7065,10 +7062,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>1568</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>1695</v>
       </c>
       <c r="C17" t="s">
@@ -7094,10 +7091,10 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>1576</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>1703</v>
       </c>
       <c r="C18" t="s">
@@ -7123,10 +7120,10 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>1580</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>1707</v>
       </c>
       <c r="C19" t="s">
@@ -7152,10 +7149,10 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>1845</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>1957</v>
       </c>
       <c r="C20" t="s">
@@ -7181,10 +7178,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>1976</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>2140</v>
       </c>
       <c r="C21" t="s">
@@ -7210,10 +7207,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>2004</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>2168</v>
       </c>
       <c r="C22" t="s">
@@ -7239,10 +7236,10 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>2070</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <v>1876</v>
       </c>
       <c r="C23" t="s">
@@ -7268,10 +7265,10 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>2093</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="3">
         <v>1899</v>
       </c>
       <c r="C24" t="s">
@@ -7297,10 +7294,10 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>2109</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="3">
         <v>1915</v>
       </c>
       <c r="C25" t="s">
@@ -7326,10 +7323,10 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="3">
         <v>2324</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="3">
         <v>2398</v>
       </c>
       <c r="C26" t="s">
@@ -7355,10 +7352,10 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>2338</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="3">
         <v>2412</v>
       </c>
       <c r="C27" t="s">
@@ -7384,10 +7381,10 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>2356</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="3">
         <v>2430</v>
       </c>
       <c r="C28" t="s">
@@ -7413,10 +7410,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>2368</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="3">
         <v>2442</v>
       </c>
       <c r="C29" t="s">
@@ -7442,10 +7439,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>2374</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="3">
         <v>3979</v>
       </c>
       <c r="C30" t="s">
@@ -7471,10 +7468,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>2407</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="3">
         <v>618</v>
       </c>
       <c r="C31" t="s">
@@ -7500,10 +7497,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+      <c r="A32" s="3">
         <v>2901</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="3">
         <v>753</v>
       </c>
       <c r="C32" t="s">
@@ -7529,10 +7526,10 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>2952</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="3">
         <v>3404</v>
       </c>
       <c r="C33" t="s">
@@ -7558,10 +7555,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="A34" s="3">
         <v>2959</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="3">
         <v>1264</v>
       </c>
       <c r="C34" t="s">
@@ -7587,10 +7584,10 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+      <c r="A35" s="3">
         <v>2990</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="3">
         <v>3866</v>
       </c>
       <c r="C35" t="s">
@@ -7616,10 +7613,10 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+      <c r="A36" s="3">
         <v>3015</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="3">
         <v>729</v>
       </c>
       <c r="C36" t="s">
@@ -7645,10 +7642,10 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+      <c r="A37" s="3">
         <v>3117</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="3">
         <v>2496</v>
       </c>
       <c r="C37" t="s">
@@ -7674,10 +7671,10 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+      <c r="A38" s="3">
         <v>3128</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="3">
         <v>2507</v>
       </c>
       <c r="C38" t="s">
@@ -7703,10 +7700,10 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+      <c r="A39" s="3">
         <v>3327</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="3">
         <v>1606</v>
       </c>
       <c r="C39" t="s">
@@ -7732,10 +7729,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+      <c r="A40" s="3">
         <v>3338</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="3">
         <v>1615</v>
       </c>
       <c r="C40" t="s">
@@ -7761,10 +7758,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+      <c r="A41" s="3">
         <v>3343</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="3">
         <v>1620</v>
       </c>
       <c r="C41" t="s">
@@ -7790,10 +7787,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+      <c r="A42" s="3">
         <v>3717</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="3">
         <v>3977</v>
       </c>
       <c r="C42" t="s">
@@ -7819,10 +7816,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
+      <c r="A43" s="3">
         <v>3729</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="3">
         <v>2212</v>
       </c>
       <c r="C43" t="s">
@@ -7848,10 +7845,10 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
+      <c r="A44" s="3">
         <v>3749</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="3">
         <v>2232</v>
       </c>
       <c r="C44" t="s">
@@ -7877,10 +7874,10 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
+      <c r="A45" s="3">
         <v>3787</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="3">
         <v>2270</v>
       </c>
       <c r="C45" t="s">
@@ -7906,10 +7903,10 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
+      <c r="A46" s="3">
         <v>3814</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="3">
         <v>3932</v>
       </c>
       <c r="C46" t="s">
@@ -7935,10 +7932,10 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
+      <c r="A47" s="3">
         <v>3825</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="3">
         <v>3943</v>
       </c>
       <c r="C47" t="s">
@@ -7964,10 +7961,10 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
+      <c r="A48" s="3">
         <v>1389</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="3">
         <v>1792</v>
       </c>
       <c r="C48" t="s">
@@ -7993,10 +7990,10 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
+      <c r="A49" s="3">
         <v>1410</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="3">
         <v>1818</v>
       </c>
       <c r="C49" t="s">
@@ -8022,10 +8019,10 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
+      <c r="A50" s="3">
         <v>1411</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="3">
         <v>1819</v>
       </c>
       <c r="C50" t="s">
@@ -8051,10 +8048,10 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
+      <c r="A51" s="3">
         <v>1412</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="3">
         <v>1820</v>
       </c>
       <c r="C51" t="s">
@@ -8080,10 +8077,10 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
+      <c r="A52" s="3">
         <v>1482</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="3">
         <v>2940</v>
       </c>
       <c r="C52" t="s">
@@ -8109,10 +8106,10 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
+      <c r="A53" s="3">
         <v>1519</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="3">
         <v>1646</v>
       </c>
       <c r="C53" t="s">
@@ -8138,10 +8135,10 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
+      <c r="A54" s="3">
         <v>1525</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="3">
         <v>1652</v>
       </c>
       <c r="C54" t="s">
@@ -8167,10 +8164,10 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
+      <c r="A55" s="3">
         <v>1538</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="3">
         <v>1665</v>
       </c>
       <c r="C55" t="s">
@@ -8196,10 +8193,10 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
+      <c r="A56" s="3">
         <v>1542</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="3">
         <v>1669</v>
       </c>
       <c r="C56" t="s">
@@ -8225,10 +8222,10 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
+      <c r="A57" s="3">
         <v>1572</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="3">
         <v>1699</v>
       </c>
       <c r="C57" t="s">
@@ -8254,10 +8251,10 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="5">
+      <c r="A58" s="3">
         <v>1869</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="3">
         <v>1981</v>
       </c>
       <c r="C58" t="s">
@@ -8283,10 +8280,10 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="5">
+      <c r="A59" s="3">
         <v>1876</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="3">
         <v>1988</v>
       </c>
       <c r="C59" t="s">
@@ -8312,10 +8309,10 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="5">
+      <c r="A60" s="3">
         <v>1961</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="3">
         <v>2125</v>
       </c>
       <c r="C60" t="s">
@@ -8341,10 +8338,10 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
+      <c r="A61" s="3">
         <v>1966</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="3">
         <v>2130</v>
       </c>
       <c r="C61" t="s">
@@ -8370,10 +8367,10 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
+      <c r="A62" s="3">
         <v>2013</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="3">
         <v>2177</v>
       </c>
       <c r="C62" t="s">
@@ -8399,10 +8396,10 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
+      <c r="A63" s="3">
         <v>2100</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="3">
         <v>1906</v>
       </c>
       <c r="C63" t="s">
@@ -8428,10 +8425,10 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="5">
+      <c r="A64" s="3">
         <v>2108</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="3">
         <v>1914</v>
       </c>
       <c r="C64" t="s">
@@ -8457,10 +8454,10 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="5">
+      <c r="A65" s="3">
         <v>2292</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="3">
         <v>2366</v>
       </c>
       <c r="C65" t="s">
@@ -8486,10 +8483,10 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="5">
+      <c r="A66" s="3">
         <v>2315</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="3">
         <v>2389</v>
       </c>
       <c r="C66" t="s">
@@ -8515,10 +8512,10 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
+      <c r="A67" s="3">
         <v>2327</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="3">
         <v>2401</v>
       </c>
       <c r="C67" t="s">
@@ -8544,10 +8541,10 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
+      <c r="A68" s="3">
         <v>2333</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="3">
         <v>2407</v>
       </c>
       <c r="C68" t="s">
@@ -8573,10 +8570,10 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
+      <c r="A69" s="3">
         <v>2917</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="3">
         <v>769</v>
       </c>
       <c r="C69" t="s">
@@ -8602,10 +8599,10 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
+      <c r="A70" s="3">
         <v>3130</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="3">
         <v>2509</v>
       </c>
       <c r="C70" t="s">
@@ -8631,10 +8628,10 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
+      <c r="A71" s="3">
         <v>3144</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="3">
         <v>2523</v>
       </c>
       <c r="C71" t="s">
@@ -8660,10 +8657,10 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="5">
+      <c r="A72" s="3">
         <v>3148</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="3">
         <v>2527</v>
       </c>
       <c r="C72" t="s">
@@ -8689,10 +8686,10 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="5">
+      <c r="A73" s="3">
         <v>3335</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" s="3">
         <v>1612</v>
       </c>
       <c r="C73" t="s">
@@ -8718,10 +8715,10 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="5">
+      <c r="A74" s="3">
         <v>3377</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="3">
         <v>4290</v>
       </c>
       <c r="C74" t="s">
@@ -8747,10 +8744,10 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
+      <c r="A75" s="3">
         <v>3628</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="3">
         <v>2305</v>
       </c>
       <c r="C75" t="s">
@@ -8776,10 +8773,10 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="5">
+      <c r="A76" s="3">
         <v>3648</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="3">
         <v>2325</v>
       </c>
       <c r="C76" t="s">
@@ -8805,10 +8802,10 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="5">
+      <c r="A77" s="3">
         <v>3723</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="3">
         <v>2206</v>
       </c>
       <c r="C77" t="s">
@@ -8834,10 +8831,10 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="5">
+      <c r="A78" s="3">
         <v>3727</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="3">
         <v>2210</v>
       </c>
       <c r="C78" t="s">
@@ -8863,10 +8860,10 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="5">
+      <c r="A79" s="3">
         <v>3750</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79" s="3">
         <v>2233</v>
       </c>
       <c r="C79" t="s">
@@ -8892,10 +8889,10 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="5">
+      <c r="A80" s="3">
         <v>3754</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80" s="3">
         <v>2237</v>
       </c>
       <c r="C80" t="s">
@@ -8921,10 +8918,10 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="5">
+      <c r="A81" s="3">
         <v>3785</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="3">
         <v>2268</v>
       </c>
       <c r="C81" t="s">
@@ -8950,10 +8947,10 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="5">
+      <c r="A82" s="3">
         <v>3790</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="3">
         <v>2273</v>
       </c>
       <c r="C82" t="s">
@@ -8979,10 +8976,10 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="5">
+      <c r="A83" s="3">
         <v>3807</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83" s="3">
         <v>3925</v>
       </c>
       <c r="C83" t="s">
@@ -9008,10 +9005,10 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="5">
+      <c r="A84" s="3">
         <v>3815</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="3">
         <v>3933</v>
       </c>
       <c r="C84" t="s">
@@ -9037,10 +9034,10 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="5">
+      <c r="A85" s="3">
         <v>3897</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85" s="3">
         <v>641</v>
       </c>
       <c r="C85" t="s">
@@ -16727,7 +16724,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>88</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -16756,7 +16753,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>135</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -16785,7 +16782,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>145</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -16814,7 +16811,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>154</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -16843,7 +16840,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>173</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -16872,7 +16869,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>197</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -16901,7 +16898,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>199</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -16930,7 +16927,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>207</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -16959,7 +16956,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>221</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -16988,7 +16985,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>353</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -17017,7 +17014,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>366</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -17046,7 +17043,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>509</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -17075,7 +17072,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>511</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -17104,7 +17101,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>573</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -17133,7 +17130,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>771</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -17162,7 +17159,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>833</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -17191,7 +17188,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>879</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -17220,7 +17217,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>880</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -17249,7 +17246,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>883</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -17278,7 +17275,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>884</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -17307,7 +17304,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>887</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -17336,7 +17333,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>893</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -17365,7 +17362,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>917</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -17394,7 +17391,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>971</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -17423,7 +17420,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="3">
         <v>972</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -17452,7 +17449,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>1075</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -17481,7 +17478,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>1129</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -17510,7 +17507,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>1131</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -17539,7 +17536,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>1153</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -17568,7 +17565,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>1235</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -17597,7 +17594,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+      <c r="A32" s="3">
         <v>1274</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -17626,7 +17623,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>1319</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -17655,7 +17652,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="A34" s="3">
         <v>1390</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -17684,7 +17681,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+      <c r="A35" s="3">
         <v>1398</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -17713,7 +17710,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+      <c r="A36" s="3">
         <v>1513</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -17742,7 +17739,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+      <c r="A37" s="3">
         <v>1520</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -17771,7 +17768,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+      <c r="A38" s="3">
         <v>1523</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -17800,7 +17797,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+      <c r="A39" s="3">
         <v>1562</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -17829,7 +17826,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+      <c r="A40" s="3">
         <v>1568</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -17858,7 +17855,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+      <c r="A41" s="3">
         <v>1576</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -17887,7 +17884,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+      <c r="A42" s="3">
         <v>1580</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -17916,7 +17913,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
+      <c r="A43" s="3">
         <v>1704</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -17945,7 +17942,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
+      <c r="A44" s="3">
         <v>1786</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -17974,7 +17971,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
+      <c r="A45" s="3">
         <v>1845</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -18003,7 +18000,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
+      <c r="A46" s="3">
         <v>1976</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -18032,7 +18029,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
+      <c r="A47" s="3">
         <v>2004</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -18061,7 +18058,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
+      <c r="A48" s="3">
         <v>2070</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -18090,7 +18087,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
+      <c r="A49" s="3">
         <v>2093</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -18119,7 +18116,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
+      <c r="A50" s="3">
         <v>2109</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -18148,7 +18145,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
+      <c r="A51" s="3">
         <v>2200</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -18177,7 +18174,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
+      <c r="A52" s="3">
         <v>2324</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -18206,7 +18203,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
+      <c r="A53" s="3">
         <v>2338</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -18235,7 +18232,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
+      <c r="A54" s="3">
         <v>2356</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -18264,7 +18261,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
+      <c r="A55" s="3">
         <v>2368</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -18293,7 +18290,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
+      <c r="A56" s="3">
         <v>2374</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -18322,7 +18319,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
+      <c r="A57" s="3">
         <v>2407</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -18351,7 +18348,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5">
+      <c r="A58" s="3">
         <v>2457</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -18380,7 +18377,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="5">
+      <c r="A59" s="3">
         <v>2473</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -18409,7 +18406,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5">
+      <c r="A60" s="3">
         <v>2490</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -18438,7 +18435,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
+      <c r="A61" s="3">
         <v>2493</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -18467,7 +18464,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
+      <c r="A62" s="3">
         <v>2549</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -18496,7 +18493,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
+      <c r="A63" s="3">
         <v>2556</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -18525,7 +18522,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="5">
+      <c r="A64" s="3">
         <v>2558</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -18554,7 +18551,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="5">
+      <c r="A65" s="3">
         <v>2568</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -18583,7 +18580,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5">
+      <c r="A66" s="3">
         <v>2687</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -18612,7 +18609,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
+      <c r="A67" s="3">
         <v>2722</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -18641,7 +18638,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
+      <c r="A68" s="3">
         <v>2761</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -18670,7 +18667,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
+      <c r="A69" s="3">
         <v>2811</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -18699,7 +18696,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
+      <c r="A70" s="3">
         <v>2878</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -18728,7 +18725,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
+      <c r="A71" s="3">
         <v>2888</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -18757,7 +18754,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="5">
+      <c r="A72" s="3">
         <v>2901</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -18786,7 +18783,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="5">
+      <c r="A73" s="3">
         <v>2952</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -18815,7 +18812,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="5">
+      <c r="A74" s="3">
         <v>2959</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -18844,7 +18841,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
+      <c r="A75" s="3">
         <v>2990</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -18873,7 +18870,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="5">
+      <c r="A76" s="3">
         <v>3015</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -18902,7 +18899,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="5">
+      <c r="A77" s="3">
         <v>3117</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -18931,7 +18928,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="5">
+      <c r="A78" s="3">
         <v>3128</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -18960,7 +18957,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="5">
+      <c r="A79" s="3">
         <v>3183</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -18989,7 +18986,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="5">
+      <c r="A80" s="3">
         <v>3194</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -19018,7 +19015,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="5">
+      <c r="A81" s="3">
         <v>3198</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -19047,7 +19044,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="5">
+      <c r="A82" s="3">
         <v>3254</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -19076,7 +19073,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="5">
+      <c r="A83" s="3">
         <v>3255</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -19105,7 +19102,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="5">
+      <c r="A84" s="3">
         <v>3327</v>
       </c>
       <c r="B84" s="3" t="s">
@@ -19134,7 +19131,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="5">
+      <c r="A85" s="3">
         <v>3338</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -19163,7 +19160,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="5">
+      <c r="A86" s="3">
         <v>3343</v>
       </c>
       <c r="B86" s="3" t="s">
@@ -19192,7 +19189,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="5">
+      <c r="A87" s="3">
         <v>3717</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -19221,7 +19218,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="5">
+      <c r="A88" s="3">
         <v>3729</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -19250,7 +19247,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="5">
+      <c r="A89" s="3">
         <v>3749</v>
       </c>
       <c r="B89" s="3" t="s">
@@ -19279,7 +19276,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="5">
+      <c r="A90" s="3">
         <v>3787</v>
       </c>
       <c r="B90" s="3" t="s">
@@ -19308,7 +19305,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="5">
+      <c r="A91" s="3">
         <v>3814</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -19337,7 +19334,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="5">
+      <c r="A92" s="3">
         <v>3825</v>
       </c>
       <c r="B92" s="3" t="s">
@@ -19366,7 +19363,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="5">
+      <c r="A93" s="3">
         <v>3949</v>
       </c>
       <c r="B93" s="3" t="s">
@@ -19395,7 +19392,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
+      <c r="A94" s="3">
         <v>3951</v>
       </c>
       <c r="B94" s="3" t="s">
@@ -19424,7 +19421,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="5">
+      <c r="A95" s="3">
         <v>4135</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -19453,7 +19450,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="5">
+      <c r="A96" s="3">
         <v>4206</v>
       </c>
       <c r="B96" s="3" t="s">
@@ -19482,7 +19479,7 @@
       </c>
     </row>
     <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="5">
+      <c r="A97" s="3">
         <v>4282</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -19511,7 +19508,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="5">
+      <c r="A98" s="3">
         <v>4285</v>
       </c>
       <c r="B98" s="3" t="s">
@@ -19540,7 +19537,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="5">
+      <c r="A99" s="3">
         <v>18</v>
       </c>
       <c r="B99" s="3" t="s">
@@ -19569,7 +19566,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="5">
+      <c r="A100" s="3">
         <v>81</v>
       </c>
       <c r="B100" s="3" t="s">
@@ -19598,7 +19595,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="5">
+      <c r="A101" s="3">
         <v>82</v>
       </c>
       <c r="B101" s="3" t="s">
@@ -19627,7 +19624,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="5">
+      <c r="A102" s="3">
         <v>83</v>
       </c>
       <c r="B102" s="3" t="s">
@@ -19656,7 +19653,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="5">
+      <c r="A103" s="3">
         <v>84</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -19685,7 +19682,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="5">
+      <c r="A104" s="3">
         <v>87</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -19714,7 +19711,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="5">
+      <c r="A105" s="3">
         <v>116</v>
       </c>
       <c r="B105" s="3" t="s">
@@ -19743,7 +19740,7 @@
       </c>
     </row>
     <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="5">
+      <c r="A106" s="3">
         <v>136</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -19772,7 +19769,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="5">
+      <c r="A107" s="3">
         <v>193</v>
       </c>
       <c r="B107" s="3" t="s">
@@ -19801,7 +19798,7 @@
       </c>
     </row>
     <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="5">
+      <c r="A108" s="3">
         <v>211</v>
       </c>
       <c r="B108" s="3" t="s">
@@ -19830,7 +19827,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="5">
+      <c r="A109" s="3">
         <v>229</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -19859,7 +19856,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="5">
+      <c r="A110" s="3">
         <v>254</v>
       </c>
       <c r="B110" s="3" t="s">
@@ -19888,7 +19885,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="5">
+      <c r="A111" s="3">
         <v>263</v>
       </c>
       <c r="B111" s="3" t="s">
@@ -19917,7 +19914,7 @@
       </c>
     </row>
     <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="5">
+      <c r="A112" s="3">
         <v>270</v>
       </c>
       <c r="B112" s="3" t="s">
@@ -19946,7 +19943,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="5">
+      <c r="A113" s="3">
         <v>358</v>
       </c>
       <c r="B113" s="3" t="s">
@@ -19975,7 +19972,7 @@
       </c>
     </row>
     <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="5">
+      <c r="A114" s="3">
         <v>364</v>
       </c>
       <c r="B114" s="3" t="s">
@@ -20004,7 +20001,7 @@
       </c>
     </row>
     <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="5">
+      <c r="A115" s="3">
         <v>393</v>
       </c>
       <c r="B115" s="3" t="s">
@@ -20033,7 +20030,7 @@
       </c>
     </row>
     <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="5">
+      <c r="A116" s="3">
         <v>395</v>
       </c>
       <c r="B116" s="3" t="s">
@@ -20062,7 +20059,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="5">
+      <c r="A117" s="3">
         <v>443</v>
       </c>
       <c r="B117" s="3" t="s">
@@ -20091,7 +20088,7 @@
       </c>
     </row>
     <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="5">
+      <c r="A118" s="3">
         <v>449</v>
       </c>
       <c r="B118" s="3" t="s">
@@ -20120,7 +20117,7 @@
       </c>
     </row>
     <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="5">
+      <c r="A119" s="3">
         <v>498</v>
       </c>
       <c r="B119" s="3" t="s">
@@ -20149,7 +20146,7 @@
       </c>
     </row>
     <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="5">
+      <c r="A120" s="3">
         <v>505</v>
       </c>
       <c r="B120" s="3" t="s">
@@ -20178,7 +20175,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="5">
+      <c r="A121" s="3">
         <v>507</v>
       </c>
       <c r="B121" s="3" t="s">
@@ -20207,7 +20204,7 @@
       </c>
     </row>
     <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="5">
+      <c r="A122" s="3">
         <v>529</v>
       </c>
       <c r="B122" s="3" t="s">
@@ -20236,7 +20233,7 @@
       </c>
     </row>
     <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="5">
+      <c r="A123" s="3">
         <v>666</v>
       </c>
       <c r="B123" s="3" t="s">
@@ -20265,7 +20262,7 @@
       </c>
     </row>
     <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="5">
+      <c r="A124" s="3">
         <v>754</v>
       </c>
       <c r="B124" s="3" t="s">
@@ -20294,7 +20291,7 @@
       </c>
     </row>
     <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="5">
+      <c r="A125" s="3">
         <v>755</v>
       </c>
       <c r="B125" s="3" t="s">
@@ -20323,7 +20320,7 @@
       </c>
     </row>
     <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="5">
+      <c r="A126" s="3">
         <v>758</v>
       </c>
       <c r="B126" s="3" t="s">
@@ -20352,7 +20349,7 @@
       </c>
     </row>
     <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="5">
+      <c r="A127" s="3">
         <v>760</v>
       </c>
       <c r="B127" s="3" t="s">
@@ -20381,7 +20378,7 @@
       </c>
     </row>
     <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="5">
+      <c r="A128" s="3">
         <v>940</v>
       </c>
       <c r="B128" s="3" t="s">
@@ -20410,7 +20407,7 @@
       </c>
     </row>
     <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="5">
+      <c r="A129" s="3">
         <v>963</v>
       </c>
       <c r="B129" s="3" t="s">
@@ -20439,7 +20436,7 @@
       </c>
     </row>
     <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="5">
+      <c r="A130" s="3">
         <v>964</v>
       </c>
       <c r="B130" s="3" t="s">
@@ -20468,7 +20465,7 @@
       </c>
     </row>
     <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="5">
+      <c r="A131" s="3">
         <v>975</v>
       </c>
       <c r="B131" s="3" t="s">
@@ -20497,7 +20494,7 @@
       </c>
     </row>
     <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="5">
+      <c r="A132" s="3">
         <v>984</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -20526,7 +20523,7 @@
       </c>
     </row>
     <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="5">
+      <c r="A133" s="3">
         <v>988</v>
       </c>
       <c r="B133" s="3" t="s">
@@ -20555,7 +20552,7 @@
       </c>
     </row>
     <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="5">
+      <c r="A134" s="3">
         <v>1011</v>
       </c>
       <c r="B134" s="3" t="s">
@@ -20584,7 +20581,7 @@
       </c>
     </row>
     <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="5">
+      <c r="A135" s="3">
         <v>1040</v>
       </c>
       <c r="B135" s="3" t="s">
@@ -20613,7 +20610,7 @@
       </c>
     </row>
     <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="5">
+      <c r="A136" s="3">
         <v>1045</v>
       </c>
       <c r="B136" s="3" t="s">
@@ -20642,7 +20639,7 @@
       </c>
     </row>
     <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="5">
+      <c r="A137" s="3">
         <v>1048</v>
       </c>
       <c r="B137" s="3" t="s">
@@ -20671,7 +20668,7 @@
       </c>
     </row>
     <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="5">
+      <c r="A138" s="3">
         <v>1124</v>
       </c>
       <c r="B138" s="3" t="s">
@@ -20700,7 +20697,7 @@
       </c>
     </row>
     <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="5">
+      <c r="A139" s="3">
         <v>1135</v>
       </c>
       <c r="B139" s="3" t="s">
@@ -20729,7 +20726,7 @@
       </c>
     </row>
     <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="5">
+      <c r="A140" s="3">
         <v>1148</v>
       </c>
       <c r="B140" s="3" t="s">
@@ -20758,7 +20755,7 @@
       </c>
     </row>
     <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="5">
+      <c r="A141" s="3">
         <v>1252</v>
       </c>
       <c r="B141" s="3" t="s">
@@ -20787,7 +20784,7 @@
       </c>
     </row>
     <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="5">
+      <c r="A142" s="3">
         <v>1297</v>
       </c>
       <c r="B142" s="3" t="s">
@@ -20816,7 +20813,7 @@
       </c>
     </row>
     <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="5">
+      <c r="A143" s="3">
         <v>1306</v>
       </c>
       <c r="B143" s="3" t="s">
@@ -20845,7 +20842,7 @@
       </c>
     </row>
     <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="5">
+      <c r="A144" s="3">
         <v>1312</v>
       </c>
       <c r="B144" s="3" t="s">
@@ -20874,7 +20871,7 @@
       </c>
     </row>
     <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="5">
+      <c r="A145" s="3">
         <v>1316</v>
       </c>
       <c r="B145" s="3" t="s">
@@ -20903,7 +20900,7 @@
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A146" s="5">
+      <c r="A146" s="3">
         <v>1389</v>
       </c>
       <c r="B146" s="3" t="s">
@@ -20932,7 +20929,7 @@
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A147" s="5">
+      <c r="A147" s="3">
         <v>1410</v>
       </c>
       <c r="B147" s="3" t="s">
@@ -20961,7 +20958,7 @@
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A148" s="5">
+      <c r="A148" s="3">
         <v>1411</v>
       </c>
       <c r="B148" s="3" t="s">
@@ -20990,7 +20987,7 @@
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A149" s="5">
+      <c r="A149" s="3">
         <v>1412</v>
       </c>
       <c r="B149" s="3" t="s">
@@ -21019,7 +21016,7 @@
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A150" s="5">
+      <c r="A150" s="3">
         <v>1482</v>
       </c>
       <c r="B150" s="3" t="s">
@@ -21048,7 +21045,7 @@
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A151" s="5">
+      <c r="A151" s="3">
         <v>1519</v>
       </c>
       <c r="B151" s="3" t="s">
@@ -21077,7 +21074,7 @@
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A152" s="5">
+      <c r="A152" s="3">
         <v>1525</v>
       </c>
       <c r="B152" s="3" t="s">
@@ -21106,7 +21103,7 @@
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A153" s="5">
+      <c r="A153" s="3">
         <v>1538</v>
       </c>
       <c r="B153" s="3" t="s">
@@ -21135,7 +21132,7 @@
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A154" s="5">
+      <c r="A154" s="3">
         <v>1542</v>
       </c>
       <c r="B154" s="3" t="s">
@@ -21164,7 +21161,7 @@
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A155" s="5">
+      <c r="A155" s="3">
         <v>1572</v>
       </c>
       <c r="B155" s="3" t="s">
@@ -21193,7 +21190,7 @@
       </c>
     </row>
     <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="5">
+      <c r="A156" s="3">
         <v>1677</v>
       </c>
       <c r="B156" s="3" t="s">
@@ -21222,7 +21219,7 @@
       </c>
     </row>
     <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="5">
+      <c r="A157" s="3">
         <v>1723</v>
       </c>
       <c r="B157" s="3" t="s">
@@ -21251,7 +21248,7 @@
       </c>
     </row>
     <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="5">
+      <c r="A158" s="3">
         <v>1729</v>
       </c>
       <c r="B158" s="3" t="s">
@@ -21280,7 +21277,7 @@
       </c>
     </row>
     <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="5">
+      <c r="A159" s="3">
         <v>1789</v>
       </c>
       <c r="B159" s="3" t="s">
@@ -21309,7 +21306,7 @@
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A160" s="5">
+      <c r="A160" s="3">
         <v>1869</v>
       </c>
       <c r="B160" s="3" t="s">
@@ -21338,7 +21335,7 @@
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A161" s="5">
+      <c r="A161" s="3">
         <v>1876</v>
       </c>
       <c r="B161" s="3" t="s">
@@ -21367,7 +21364,7 @@
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A162" s="5">
+      <c r="A162" s="3">
         <v>1961</v>
       </c>
       <c r="B162" s="3" t="s">
@@ -21396,7 +21393,7 @@
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A163" s="5">
+      <c r="A163" s="3">
         <v>1966</v>
       </c>
       <c r="B163" s="3" t="s">
@@ -21425,7 +21422,7 @@
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A164" s="5">
+      <c r="A164" s="3">
         <v>2013</v>
       </c>
       <c r="B164" s="3" t="s">
@@ -21454,7 +21451,7 @@
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A165" s="5">
+      <c r="A165" s="3">
         <v>2100</v>
       </c>
       <c r="B165" s="3" t="s">
@@ -21483,7 +21480,7 @@
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A166" s="5">
+      <c r="A166" s="3">
         <v>2108</v>
       </c>
       <c r="B166" s="3" t="s">
@@ -21512,7 +21509,7 @@
       </c>
     </row>
     <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="5">
+      <c r="A167" s="3">
         <v>2182</v>
       </c>
       <c r="B167" s="3" t="s">
@@ -21541,7 +21538,7 @@
       </c>
     </row>
     <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="5">
+      <c r="A168" s="3">
         <v>2224</v>
       </c>
       <c r="B168" s="3" t="s">
@@ -21570,7 +21567,7 @@
       </c>
     </row>
     <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="5">
+      <c r="A169" s="3">
         <v>2227</v>
       </c>
       <c r="B169" s="3" t="s">
@@ -21599,7 +21596,7 @@
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A170" s="5">
+      <c r="A170" s="3">
         <v>2292</v>
       </c>
       <c r="B170" s="3" t="s">
@@ -21628,7 +21625,7 @@
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A171" s="5">
+      <c r="A171" s="3">
         <v>2315</v>
       </c>
       <c r="B171" s="3" t="s">
@@ -21657,7 +21654,7 @@
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A172" s="5">
+      <c r="A172" s="3">
         <v>2327</v>
       </c>
       <c r="B172" s="3" t="s">
@@ -21686,7 +21683,7 @@
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A173" s="5">
+      <c r="A173" s="3">
         <v>2333</v>
       </c>
       <c r="B173" s="3" t="s">
@@ -21715,7 +21712,7 @@
       </c>
     </row>
     <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="5">
+      <c r="A174" s="3">
         <v>2477</v>
       </c>
       <c r="B174" s="3" t="s">
@@ -21744,7 +21741,7 @@
       </c>
     </row>
     <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="5">
+      <c r="A175" s="3">
         <v>2485</v>
       </c>
       <c r="B175" s="3" t="s">
@@ -21773,7 +21770,7 @@
       </c>
     </row>
     <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="5">
+      <c r="A176" s="3">
         <v>2542</v>
       </c>
       <c r="B176" s="3" t="s">
@@ -21802,7 +21799,7 @@
       </c>
     </row>
     <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="5">
+      <c r="A177" s="3">
         <v>2544</v>
       </c>
       <c r="B177" s="3" t="s">
@@ -21831,7 +21828,7 @@
       </c>
     </row>
     <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="5">
+      <c r="A178" s="3">
         <v>2560</v>
       </c>
       <c r="B178" s="3" t="s">
@@ -21860,7 +21857,7 @@
       </c>
     </row>
     <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="5">
+      <c r="A179" s="3">
         <v>2633</v>
       </c>
       <c r="B179" s="3" t="s">
@@ -21889,7 +21886,7 @@
       </c>
     </row>
     <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="5">
+      <c r="A180" s="3">
         <v>2708</v>
       </c>
       <c r="B180" s="3" t="s">
@@ -21918,7 +21915,7 @@
       </c>
     </row>
     <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="5">
+      <c r="A181" s="3">
         <v>2763</v>
       </c>
       <c r="B181" s="3" t="s">
@@ -21947,7 +21944,7 @@
       </c>
     </row>
     <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="5">
+      <c r="A182" s="3">
         <v>2770</v>
       </c>
       <c r="B182" s="3" t="s">
@@ -21976,7 +21973,7 @@
       </c>
     </row>
     <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="5">
+      <c r="A183" s="3">
         <v>2794</v>
       </c>
       <c r="B183" s="3" t="s">
@@ -22005,7 +22002,7 @@
       </c>
     </row>
     <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="5">
+      <c r="A184" s="3">
         <v>2820</v>
       </c>
       <c r="B184" s="3" t="s">
@@ -22034,7 +22031,7 @@
       </c>
     </row>
     <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="5">
+      <c r="A185" s="3">
         <v>2834</v>
       </c>
       <c r="B185" s="3" t="s">
@@ -22063,7 +22060,7 @@
       </c>
     </row>
     <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="5">
+      <c r="A186" s="3">
         <v>2841</v>
       </c>
       <c r="B186" s="3" t="s">
@@ -22092,7 +22089,7 @@
       </c>
     </row>
     <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="5">
+      <c r="A187" s="3">
         <v>2879</v>
       </c>
       <c r="B187" s="3" t="s">
@@ -22121,7 +22118,7 @@
       </c>
     </row>
     <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="5">
+      <c r="A188" s="3">
         <v>2900</v>
       </c>
       <c r="B188" s="3" t="s">
@@ -22150,7 +22147,7 @@
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A189" s="5">
+      <c r="A189" s="3">
         <v>2917</v>
       </c>
       <c r="B189" s="3" t="s">
@@ -22179,7 +22176,7 @@
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A190" s="5">
+      <c r="A190" s="3">
         <v>3130</v>
       </c>
       <c r="B190" s="3" t="s">
@@ -22208,7 +22205,7 @@
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A191" s="5">
+      <c r="A191" s="3">
         <v>3144</v>
       </c>
       <c r="B191" s="3" t="s">
@@ -22237,7 +22234,7 @@
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A192" s="5">
+      <c r="A192" s="3">
         <v>3148</v>
       </c>
       <c r="B192" s="3" t="s">
@@ -22266,7 +22263,7 @@
       </c>
     </row>
     <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="5">
+      <c r="A193" s="3">
         <v>3253</v>
       </c>
       <c r="B193" s="3" t="s">
@@ -22295,7 +22292,7 @@
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A194" s="5">
+      <c r="A194" s="3">
         <v>3335</v>
       </c>
       <c r="B194" s="3" t="s">
@@ -22324,7 +22321,7 @@
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A195" s="5">
+      <c r="A195" s="3">
         <v>3377</v>
       </c>
       <c r="B195" s="3" t="s">
@@ -22353,7 +22350,7 @@
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A196" s="5">
+      <c r="A196" s="3">
         <v>3628</v>
       </c>
       <c r="B196" s="3" t="s">
@@ -22382,7 +22379,7 @@
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A197" s="5">
+      <c r="A197" s="3">
         <v>3648</v>
       </c>
       <c r="B197" s="3" t="s">
@@ -22411,7 +22408,7 @@
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A198" s="5">
+      <c r="A198" s="3">
         <v>3723</v>
       </c>
       <c r="B198" s="3" t="s">
@@ -22440,7 +22437,7 @@
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A199" s="5">
+      <c r="A199" s="3">
         <v>3727</v>
       </c>
       <c r="B199" s="3" t="s">
@@ -22469,7 +22466,7 @@
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A200" s="5">
+      <c r="A200" s="3">
         <v>3750</v>
       </c>
       <c r="B200" s="3" t="s">
@@ -22498,7 +22495,7 @@
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A201" s="5">
+      <c r="A201" s="3">
         <v>3754</v>
       </c>
       <c r="B201" s="3" t="s">
@@ -22527,7 +22524,7 @@
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A202" s="5">
+      <c r="A202" s="3">
         <v>3785</v>
       </c>
       <c r="B202" s="3" t="s">
@@ -22556,7 +22553,7 @@
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A203" s="5">
+      <c r="A203" s="3">
         <v>3790</v>
       </c>
       <c r="B203" s="3" t="s">
@@ -22585,7 +22582,7 @@
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A204" s="5">
+      <c r="A204" s="3">
         <v>3807</v>
       </c>
       <c r="B204" s="3" t="s">
@@ -22614,7 +22611,7 @@
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A205" s="5">
+      <c r="A205" s="3">
         <v>3815</v>
       </c>
       <c r="B205" s="3" t="s">
@@ -22643,7 +22640,7 @@
       </c>
     </row>
     <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="5">
+      <c r="A206" s="3">
         <v>3832</v>
       </c>
       <c r="B206" s="3" t="s">
@@ -22672,7 +22669,7 @@
       </c>
     </row>
     <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="5">
+      <c r="A207" s="3">
         <v>3843</v>
       </c>
       <c r="B207" s="3" t="s">
@@ -22701,7 +22698,7 @@
       </c>
     </row>
     <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="5">
+      <c r="A208" s="3">
         <v>3848</v>
       </c>
       <c r="B208" s="3" t="s">
@@ -22730,7 +22727,7 @@
       </c>
     </row>
     <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="5">
+      <c r="A209" s="3">
         <v>3864</v>
       </c>
       <c r="B209" s="3" t="s">
@@ -22759,7 +22756,7 @@
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A210" s="5">
+      <c r="A210" s="3">
         <v>3897</v>
       </c>
       <c r="B210" s="3" t="s">
@@ -22788,7 +22785,7 @@
       </c>
     </row>
     <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="5">
+      <c r="A211" s="3">
         <v>4059</v>
       </c>
       <c r="B211" s="3" t="s">
